--- a/top_10_profitable_products.csv.xlsx
+++ b/top_10_profitable_products.csv.xlsx
@@ -378,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B67"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,454 +478,6 @@
         <v>527307</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>149</v>
-      </c>
-      <c r="B12" s="2">
-        <v>492372</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>476</v>
-      </c>
-      <c r="B13" s="2">
-        <v>489585</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>293</v>
-      </c>
-      <c r="B14" s="2">
-        <v>471956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>140</v>
-      </c>
-      <c r="B15" s="2">
-        <v>439794</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>136</v>
-      </c>
-      <c r="B16" s="2">
-        <v>411300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>340</v>
-      </c>
-      <c r="B17" s="2">
-        <v>408648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>200</v>
-      </c>
-      <c r="B18" s="2">
-        <v>368478</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>259</v>
-      </c>
-      <c r="B19" s="2">
-        <v>364498</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>403</v>
-      </c>
-      <c r="B20" s="2">
-        <v>322417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>336</v>
-      </c>
-      <c r="B21" s="2">
-        <v>292958</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>467</v>
-      </c>
-      <c r="B22" s="2">
-        <v>276897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>229</v>
-      </c>
-      <c r="B23" s="2">
-        <v>263032</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2">
-        <v>247296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>73</v>
-      </c>
-      <c r="B25" s="2">
-        <v>236400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>483</v>
-      </c>
-      <c r="B26" s="2">
-        <v>230129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>166</v>
-      </c>
-      <c r="B27" s="2">
-        <v>229864</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>183</v>
-      </c>
-      <c r="B28" s="2">
-        <v>219402</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>289</v>
-      </c>
-      <c r="B29" s="2">
-        <v>206549</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>327</v>
-      </c>
-      <c r="B30" s="2">
-        <v>202242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>77</v>
-      </c>
-      <c r="B31" s="2">
-        <v>178304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>60</v>
-      </c>
-      <c r="B32" s="2">
-        <v>128016</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>399</v>
-      </c>
-      <c r="B33" s="2">
-        <v>98383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>123</v>
-      </c>
-      <c r="B34" s="2">
-        <v>88800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>263</v>
-      </c>
-      <c r="B35" s="2">
-        <v>87479</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>500</v>
-      </c>
-      <c r="B36" s="2">
-        <v>85042</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>187</v>
-      </c>
-      <c r="B37" s="2">
-        <v>78671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>56</v>
-      </c>
-      <c r="B38" s="2">
-        <v>72912</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>373</v>
-      </c>
-      <c r="B39" s="2">
-        <v>65581</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>196</v>
-      </c>
-      <c r="B40" s="2">
-        <v>64015</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>390</v>
-      </c>
-      <c r="B41" s="2">
-        <v>60235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>119</v>
-      </c>
-      <c r="B42" s="2">
-        <v>54824</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>30</v>
-      </c>
-      <c r="B43" s="2">
-        <v>51512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>369</v>
-      </c>
-      <c r="B44" s="2">
-        <v>47625</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2">
-        <v>47538</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>103</v>
-      </c>
-      <c r="B46" s="2">
-        <v>36803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>170</v>
-      </c>
-      <c r="B47" s="2">
-        <v>36727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>323</v>
-      </c>
-      <c r="B48" s="2">
-        <v>31916</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>230</v>
-      </c>
-      <c r="B49" s="2">
-        <v>30350</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>357</v>
-      </c>
-      <c r="B50" s="2">
-        <v>25497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>386</v>
-      </c>
-      <c r="B51" s="2">
-        <v>25213</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>433</v>
-      </c>
-      <c r="B52" s="2">
-        <v>23416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>450</v>
-      </c>
-      <c r="B53" s="2">
-        <v>19853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>416</v>
-      </c>
-      <c r="B54" s="2">
-        <v>18631</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>213</v>
-      </c>
-      <c r="B55" s="2">
-        <v>14101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>383</v>
-      </c>
-      <c r="B56" s="2">
-        <v>13694</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>13</v>
-      </c>
-      <c r="B57" s="2">
-        <v>9914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>233</v>
-      </c>
-      <c r="B58" s="2">
-        <v>8768</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>310</v>
-      </c>
-      <c r="B59" s="2">
-        <v>8550</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>217</v>
-      </c>
-      <c r="B60" s="2">
-        <v>8118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>107</v>
-      </c>
-      <c r="B61" s="2">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>420</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5988</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>437</v>
-      </c>
-      <c r="B63" s="2">
-        <v>5423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>39</v>
-      </c>
-      <c r="B64" s="2">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>446</v>
-      </c>
-      <c r="B65" s="2">
-        <v>2430</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="2">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>353</v>
-      </c>
-      <c r="B67" s="2">
-        <v>450</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
